--- a/FantaSoccer/MyModule/Ligue1/xG_home_all_18.xlsx
+++ b/FantaSoccer/MyModule/Ligue1/xG_home_all_18.xlsx
@@ -1051,31 +1051,31 @@
         <v>5.360917</v>
       </c>
       <c r="K10">
-        <v>5.360917</v>
+        <v>5.479641</v>
       </c>
       <c r="L10">
-        <v>5.360917</v>
+        <v>5.479641</v>
       </c>
       <c r="M10">
-        <v>5.360917</v>
+        <v>5.479641</v>
       </c>
       <c r="N10">
-        <v>8.106816999999999</v>
+        <v>8.225541</v>
       </c>
       <c r="O10">
-        <v>8.106816999999999</v>
+        <v>8.225541</v>
       </c>
       <c r="P10">
-        <v>9.634297</v>
+        <v>9.753021</v>
       </c>
       <c r="Q10">
-        <v>9.634297</v>
+        <v>9.753021</v>
       </c>
       <c r="R10">
-        <v>11.139987</v>
+        <v>11.258711</v>
       </c>
       <c r="S10">
-        <v>11.139987</v>
+        <v>11.258711</v>
       </c>
     </row>
     <row r="11" spans="1:19">
